--- a/data/income_statement/3digits/total/221_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/221_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>221-Manufacture of rubber products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>221-Manufacture of rubber products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5160942.881159999</v>
@@ -956,115 +862,130 @@
         <v>6572179.82146</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9442833.78183</v>
+        <v>9442833.781829998</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9939569.860150002</v>
+        <v>9945676.013180001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11133875.52844</v>
+        <v>11140110.62159</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12491678.66473</v>
+        <v>12545210.5822</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10868591.77992</v>
+        <v>13739946.70491</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15940500.62492</v>
+        <v>15970601.05906</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21101467.26739</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>28556317.26667</v>
+        <v>28566790.60435</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32126485.48493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32228703.48066</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38012887.639</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2935376.12151</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3875724.01623</v>
+        <v>3875724.016230001</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>5379277.709319999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5961184.24678</v>
+        <v>5966041.724400001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6655044.297700001</v>
+        <v>6659625.248430001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7317230.12932</v>
+        <v>7368668.516329999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6908755.972010001</v>
+        <v>8127249.878349999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9516594.59381</v>
+        <v>9540423.835829999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12644962.32748</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16531059.45765</v>
+        <v>16536113.69221</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18083090.11031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18170938.4201</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>23114667.379</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2169907.61116</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2637191.304750001</v>
+        <v>2637191.30475</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>3901437.99437</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3868139.36226</v>
+        <v>3869366.16412</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4321365.30141</v>
+        <v>4322967.725550001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4993245.211610001</v>
+        <v>4994853.05555</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3749320.69741</v>
+        <v>5375744.65129</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6005353.268380001</v>
+        <v>6011239.62337</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>7957767.272829999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>11433310.48576</v>
+        <v>11438714.31987</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>13436989.79112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13450402.12211</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14311901.483</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>55659.14849</v>
@@ -1076,151 +997,171 @@
         <v>162118.07814</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>110246.25111</v>
+        <v>110268.12466</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>157465.92933</v>
+        <v>157517.64761</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>181203.3238</v>
+        <v>181689.01032</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>210515.1105</v>
+        <v>236952.17527</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>418552.76273</v>
+        <v>418937.59986</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>498737.66708</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>591947.32326</v>
+        <v>591962.59227</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>606405.5834999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>607362.93845</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>586318.777</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>313879.5777500001</v>
+        <v>313879.57775</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>383476.36253</v>
+        <v>383476.3625299999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>477647.3515999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>730803.09996</v>
+        <v>731171.87167</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>808960.72247</v>
+        <v>809129.51701</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>826615.52241</v>
+        <v>829745.22557</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>533829.9023</v>
+        <v>859632.6134599999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1141386.46423</v>
+        <v>1141473.25103</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1646729.55331</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2577056.39893</v>
+        <v>2577116.55134</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2600754.49848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2602053.67385</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3529008.1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>33357.88704</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>31154.18753000001</v>
+        <v>31154.18753</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>42360.60136</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>57158.32844000001</v>
+        <v>57290.01012</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>63626.55723999999</v>
+        <v>63667.51130999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>84614.57435</v>
+        <v>84784.22888</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>102576.35614</v>
+        <v>111078.43587</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>157986.72121</v>
+        <v>158016.4011</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>170191.17941</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>656915.85278</v>
+        <v>656973.7695299999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>344650.21882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>345582.21321</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>305606.691</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>249771.28217</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>311805.7404299999</v>
+        <v>311805.74043</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>391045.27844</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>613574.9459900002</v>
+        <v>613812.03602</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>687856.1616700001</v>
+        <v>687984.00214</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>660945.6266399999</v>
+        <v>663585.2708699999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>352858.3953800001</v>
+        <v>637325.70228</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>876580.72263</v>
+        <v>876581.23612</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1351541.20136</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1731757.5634</v>
+        <v>1731759.79906</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2085547.30074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2085833.10488</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3020911.561</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>30750.40854</v>
@@ -1238,13 +1179,13 @@
         <v>57478.00356</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>81055.32142000001</v>
+        <v>81375.72581999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>78395.15078000001</v>
+        <v>111228.47531</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>106819.02039</v>
+        <v>106875.61381</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>124997.17254</v>
@@ -1253,52 +1194,62 @@
         <v>188382.98275</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>170556.97892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>170638.35576</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>202489.848</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4847063.30341</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6188703.45893</v>
+        <v>6188703.458930001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>8965186.430229999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9208766.760190001</v>
+        <v>9214504.14151</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10324914.80597</v>
+        <v>10330981.10458</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11665063.14232</v>
+        <v>11715465.35663</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10334761.87762</v>
+        <v>12880314.09145</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14799114.16069</v>
+        <v>14829127.80803</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>19454737.71408</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>25979260.86774</v>
+        <v>25989674.05301</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>29525730.98645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>29626649.80681</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34483879.539</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3870132.63148</v>
@@ -1310,133 +1261,148 @@
         <v>7339918.25838</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7521564.9193</v>
+        <v>7524667.189229999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8087999.867610001</v>
+        <v>8091597.594090001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9176324.2644</v>
+        <v>9213440.569010001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7980655.20701</v>
+        <v>10055700.96363</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11656366.18109</v>
+        <v>11678267.52303</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>15360610.62536</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>20310043.2558</v>
+        <v>20319817.1817</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23450739.65013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23542370.50497999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26409797.906</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3376507.62885</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4422286.767379999</v>
+        <v>4422286.76738</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6402135.79133</v>
+        <v>6402135.791330001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6691650.158469999</v>
+        <v>6694550.32385</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7083982.326400001</v>
+        <v>7086991.34034</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7965297.00219</v>
+        <v>8001179.79001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6801037.16378</v>
+        <v>8604715.188850001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9554678.799930001</v>
+        <v>9569939.293030001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12605434.41985</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16945791.99123</v>
+        <v>16946883.02547</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20305764.22541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20376746.56031</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>22732920.19</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>417738.8031200001</v>
+        <v>417738.80312</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>546740.4498499999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>767441.7614399999</v>
+        <v>767441.76144</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>647736.3217</v>
+        <v>647936.8645499999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>814842.39196</v>
+        <v>815431.1045</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>977696.38706</v>
+        <v>978542.14046</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>939078.58688</v>
+        <v>1169605.15602</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1701346.09806</v>
+        <v>1707872.29841</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2365162.77214</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2957709.91744</v>
+        <v>2966310.96319</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2739717.14246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2760187.81434</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3290661.344</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>27039.24476</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>76208.16823000001</v>
+        <v>76208.16823000002</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>120287.48749</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>61281.13427</v>
+        <v>61282.69597</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>59282.68394</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>73473.27189</v>
+        <v>73612.0963</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>85711.16109000001</v>
+        <v>85903.77901</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>106914.03777</v>
@@ -1445,16 +1411,21 @@
         <v>117948.44133</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>157841.2827</v>
+        <v>157923.12861</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>168355.72852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>168525.57659</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>178824.878</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>48846.95475</v>
@@ -1472,13 +1443,13 @@
         <v>129892.46531</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>159857.60326</v>
+        <v>160106.54224</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>154828.29526</v>
+        <v>195476.83975</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>293427.24533</v>
+        <v>293541.89382</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>272064.99204</v>
@@ -1487,16 +1458,21 @@
         <v>248700.06443</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>236902.55374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>236910.55374</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>207391.494</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>976930.67193</v>
+        <v>976930.6719300001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>1102951.6412</v>
@@ -1505,34 +1481,39 @@
         <v>1625268.17185</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1687201.84089</v>
+        <v>1689836.95228</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2236914.93836</v>
+        <v>2239383.51049</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2488738.87792</v>
+        <v>2502024.78762</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2354106.67061</v>
+        <v>2824613.12782</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3142747.9796</v>
+        <v>3150860.285</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4094127.08872</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5669217.61194</v>
+        <v>5669856.87131</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6074991.33632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6084279.30183</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8074081.633</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>524607.22815</v>
@@ -1544,34 +1525,39 @@
         <v>796676.58439</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>939654.7187700002</v>
+        <v>940911.1744299999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1122789.93082</v>
+        <v>1124212.75343</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1364096.07498</v>
+        <v>1371314.61831</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1227634.15991</v>
+        <v>1601018.50786</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1717780.52906</v>
+        <v>1721315.61698</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1975524.91899</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2572157.63968</v>
+        <v>2573024.9857</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2997464.92041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3008634.617310001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3359456.367</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>20914.25015</v>
@@ -1589,13 +1575,13 @@
         <v>42384.19504</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>53714.60642999999</v>
+        <v>53746.35012999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>60648.23289</v>
+        <v>67789.47572</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>61117.02502</v>
+        <v>61117.02501999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>59095.66369</v>
@@ -1604,52 +1590,62 @@
         <v>81825.25226000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>130856.60256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>131091.30765</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>172724.868</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>265360.87929</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>321016.9711300001</v>
+        <v>321016.97113</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>398484.38014</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>471823.47921</v>
+        <v>472055.81175</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>555289.28861</v>
+        <v>555562.8399500001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>667993.3153799999</v>
+        <v>671212.98074</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>581624.56306</v>
+        <v>752918.17334</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>840483.8227100001</v>
+        <v>841577.0032900001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>966983.3585699999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1178432.8773</v>
+        <v>1178514.47252</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1329804.85493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1333959.33462</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1482815.328</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>238332.09871</v>
@@ -1661,37 +1657,42 @@
         <v>363248.46725</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>423140.57023</v>
+        <v>424164.69335</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>525116.4471700001</v>
+        <v>526265.71844</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>642388.1531699999</v>
+        <v>646355.2874400001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>585361.36396</v>
+        <v>780310.8588</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>816179.6813300001</v>
+        <v>818621.58867</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>949445.89673</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1311899.51012</v>
+        <v>1312685.26092</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1536803.46292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1543583.97504</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1703916.171</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>452323.4437799999</v>
+        <v>452323.44378</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>451167.66789</v>
@@ -1700,34 +1701,39 @@
         <v>828591.5874600001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>747547.1221200001</v>
+        <v>748925.7778500001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1114125.00754</v>
+        <v>1115170.75706</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1124642.80294</v>
+        <v>1130710.16931</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1126472.5107</v>
+        <v>1223594.61996</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1424967.45054</v>
+        <v>1429544.66802</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2118602.16973</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3097059.97226</v>
+        <v>3096831.88561</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3077526.41591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3075644.68452</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4714625.266</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>210004.70511</v>
@@ -1739,34 +1745,39 @@
         <v>238837.89988</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>288137.68833</v>
+        <v>288142.00124</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>385153.62077</v>
+        <v>385179.23673</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1827415.6016</v>
+        <v>1828350.31356</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>528399.10755</v>
+        <v>725293.81702</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1003189.74874</v>
+        <v>1004687.48536</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1355827.20024</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4152155.567629999</v>
+        <v>4153356.84566</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3011017.4686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3012500.43334</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4185153.36</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>220.69133</v>
@@ -1787,7 +1798,7 @@
         <v>214.8817</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>62.50633999999999</v>
+        <v>66.06878</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>98837.08338</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>197394.16179</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>105.15</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3897.07477</v>
+        <v>3897.074770000001</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>113723.67691</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>3530.94768</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3174.017</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>20547.80861</v>
@@ -1862,28 +1883,33 @@
         <v>25853.81284</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37998.17028</v>
+        <v>38152.0886</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>37732.02969</v>
+        <v>48391.1363</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>71787.12868000001</v>
+        <v>71886.94155</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>72205.17259</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>116060.65838</v>
+        <v>116065.33782</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>220714.5804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>220752.07447</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>138462.247</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1141.55128</v>
@@ -1904,25 +1930,30 @@
         <v>426.3175199999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5102.30947</v>
+        <v>5102.309470000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>68.18780000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>317.51047</v>
+        <v>317.5104700000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>509.56703</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>495.92561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>549.80061</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>218.346</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>20623.35417</v>
@@ -1943,7 +1974,7 @@
         <v>13596.81555</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10108.91538</v>
+        <v>17882.53334</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>16413.55274</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>25846.65036</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>42095.085</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>74.11844000000001</v>
@@ -1976,31 +2012,36 @@
         <v>293.82743</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>111.19672</v>
+        <v>111.71174</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1106.33158</v>
+        <v>1123.68153</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>416.25954</v>
+        <v>710.26711</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1026.83261</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>706.0215700000001</v>
+        <v>706.02157</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6291.833549999998</v>
+        <v>6291.833549999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>547502.5876300001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>25898.589</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>132613.60143</v>
@@ -2012,34 +2053,39 @@
         <v>186704.76733</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>196851.35784</v>
+        <v>196855.61559</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>281370.88987</v>
+        <v>281395.99081</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1693788.36118</v>
+        <v>1694538.99927</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>408914.1337000001</v>
+        <v>579182.58138</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>554629.2333099999</v>
+        <v>555720.09423</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>996990.4561600001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3523074.01097</v>
+        <v>3524302.96317</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1788500.49301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1789267.72522</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3683635.641</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>86.64653</v>
@@ -2060,7 +2106,7 @@
         <v>2679.06989</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>6560.11496</v>
+        <v>6778.019220000001</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>4578.6896</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2908.99056</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2821.791</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>32.79287</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>55.741</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>34696.93332</v>
@@ -2129,34 +2185,39 @@
         <v>31339.04739</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>38556.08806</v>
+        <v>38556.14322</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>63018.90047</v>
+        <v>63018.90046999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>77603.38789000001</v>
+        <v>77616.19349000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>59499.213</v>
+        <v>67177.27595000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>251945.57225</v>
+        <v>252252.63508</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>148366.97813</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>246358.40723</v>
+        <v>246326.05362</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>224090.33869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>224714.70215</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>288686.753</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>160164.16138</v>
@@ -2168,34 +2229,39 @@
         <v>249027.81002</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>186474.62318</v>
+        <v>186482.02195</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>292476.2437999999</v>
+        <v>292480.71241</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1702041.80974</v>
+        <v>1702597.99787</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>423862.13445</v>
+        <v>572786.46805</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>661490.1305799999</v>
+        <v>663077.89331</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1028447.02959</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3516557.2489</v>
+        <v>3518145.03932</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1900759.90715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1902771.31955</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3478041.4</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1920.57194</v>
@@ -2225,16 +2291,21 @@
         <v>8020.278530000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>11750.5402</v>
+        <v>11752.07955</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12267.47974</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12270.26869</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>17075.484</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>38575.54463</v>
@@ -2252,28 +2323,33 @@
         <v>44661.91705</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>39902.73253</v>
+        <v>39902.73252999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>21841.2067</v>
+        <v>52891.27634</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>62705.47758</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>59274.45325000001</v>
+        <v>59274.45325</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>130847.67023</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>132349.86882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>132896.56981</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>123523.217</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1974.81465</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.00966</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>305.866</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>96894.44459</v>
@@ -2324,34 +2405,39 @@
         <v>187850.67435</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>113301.96169</v>
+        <v>113309.36046</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>196735.08559</v>
+        <v>196739.5542</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1613527.22248</v>
+        <v>1614083.41061</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>351070.22759</v>
+        <v>468559.26251</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>488874.85312</v>
+        <v>490459.8677</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>865565.43246</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3233445.39747</v>
+        <v>3235031.64853</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1615423.45831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1616838.393</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3164262.802</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2372,7 +2458,7 @@
         <v>4372.6981</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>5331.76171</v>
+        <v>5476.722059999999</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>3180.38</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1317.82605</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2257.156</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>20798.78557</v>
@@ -2447,28 +2543,33 @@
         <v>43045.0862</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>38517.36913</v>
+        <v>38517.36912999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>39921.454</v>
+        <v>40161.72269</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>100719.04347</v>
+        <v>100721.79162</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>93064.88475000001</v>
+        <v>93064.88475</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>137323.48475</v>
+        <v>137323.48476</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>139401.26457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>139448.25234</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>170616.875</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>132431.15255</v>
@@ -2480,34 +2581,39 @@
         <v>242247.46028</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>238893.76371</v>
+        <v>239288.2673</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>369911.47435</v>
+        <v>370266.28896</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>276382.7981</v>
+        <v>277407.52509</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>306823.63179</v>
+        <v>389096.17713</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>523317.63704</v>
+        <v>523553.13206</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>736781.4088199999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1559342.07965</v>
+        <v>1559414.58575</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1253443.23796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1253943.74775</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1808533.592</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>86868.40333</v>
@@ -2519,34 +2625,39 @@
         <v>163956.71734</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>192959.26493</v>
+        <v>193353.76852</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>204528.60201</v>
+        <v>204883.41662</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>186838.10382</v>
+        <v>187669.6619</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>180659.01296</v>
+        <v>198250.06207</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>340327.6338599999</v>
+        <v>340563.12888</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>489138.84529</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1062308.12963</v>
+        <v>1062380.63573</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1034577.19071</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1035057.45782</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1306028.31</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>45562.74922</v>
@@ -2555,7 +2666,7 @@
         <v>32442.17928</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>78290.74294</v>
+        <v>78290.74294000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>45934.49878</v>
@@ -2564,10 +2675,10 @@
         <v>165382.87234</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>89544.69428000001</v>
+        <v>89737.86319000002</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>126164.61883</v>
+        <v>190846.11506</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>182990.00318</v>
@@ -2579,52 +2690,62 @@
         <v>497033.95002</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>218866.04725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>218886.28993</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>502505.282</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>369732.8349600001</v>
+        <v>369732.8349599999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>411047.46389</v>
+        <v>411047.4638899999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>576154.21704</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>610316.42356</v>
+        <v>611297.4898400001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>836890.91016</v>
+        <v>837602.9924199999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>973633.7967000001</v>
+        <v>979054.95991</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>924185.8520100001</v>
+        <v>987005.7918</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1243349.43166</v>
+        <v>1247601.12801</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1709200.93156</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2173316.21134</v>
+        <v>2172629.1062</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2934340.7394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2931430.05056</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3613203.634</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>23680.98854</v>
@@ -2636,34 +2757,39 @@
         <v>31917.90492</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>42875.3046</v>
+        <v>43232.89348999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>64679.87204000001</v>
+        <v>64820.91584</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>85879.19288</v>
+        <v>86768.70213999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>57655.74012</v>
+        <v>70491.52528999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>137693.0141</v>
+        <v>137852.49063</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>157874.40128</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>124987.97216</v>
+        <v>125007.5096</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>194131.29366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>194811.22711</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>220211.153</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2075.27793</v>
@@ -2678,13 +2804,13 @@
         <v>1327.19913</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4457.758569999999</v>
+        <v>4457.75857</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1239.95062</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>397.2612599999999</v>
+        <v>1673.72666</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>18571.79205</v>
@@ -2696,13 +2822,18 @@
         <v>7468.793060000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>19241.78481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>19241.78673</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>48662.45</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>21605.71061</v>
@@ -2714,34 +2845,39 @@
         <v>31127.4339</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>41548.10547</v>
+        <v>41905.69436</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>60222.11347</v>
+        <v>60363.15727</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>84639.24226</v>
+        <v>85528.75152000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>57258.47886</v>
+        <v>68817.79862999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>119121.22205</v>
+        <v>119280.69858</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>149531.99349</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>117519.1791</v>
+        <v>117538.71654</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>174889.50885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>175569.44038</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>171548.703</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>76312.72296</v>
@@ -2753,55 +2889,60 @@
         <v>123073.3652</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>90481.33996999999</v>
+        <v>91608.65141999998</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>88099.32608</v>
+        <v>88937.48575000002</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>134219.67441</v>
+        <v>135404.86941</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>88162.90471</v>
+        <v>117291.79616</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>254749.36034</v>
+        <v>255372.93832</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>272318.66629</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>263066.83017</v>
+        <v>263071.17412</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>264205.04957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>263861.5767</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>267356.629</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>47702.50843</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>33621.92857</v>
+        <v>33621.92857000001</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>46735.44093</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>45623.54317</v>
+        <v>46542.34296</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>47441.50319</v>
+        <v>48275.41816</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>50673.93610000001</v>
+        <v>51545.05512</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>50696.31072000001</v>
+        <v>51738.82862</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>68448.65534</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>105579.80724</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>111072.868</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2729.29502</v>
@@ -2840,7 +2986,7 @@
         <v>10601.75414</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2285.7619</v>
+        <v>7327.96421</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>32436.76685</v>
@@ -2852,13 +2998,18 @@
         <v>32465.88708</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>60105.18867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>60105.38947000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>63493.423</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>25880.91951</v>
@@ -2870,34 +3021,39 @@
         <v>74030.35198000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>40720.87006</v>
+        <v>40929.38172</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>37247.61455</v>
+        <v>37251.85925</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>72943.98416999998</v>
+        <v>73258.06015</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>35180.83209</v>
+        <v>58225.00333</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>153863.93815</v>
+        <v>154487.51613</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>84498.52240999999</v>
+        <v>84498.52241000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>159226.25834</v>
+        <v>159230.60229</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>98520.05365999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>98176.37999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>92790.338</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>317101.10054</v>
@@ -2906,37 +3062,42 @@
         <v>364576.08409</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>484998.7567600001</v>
+        <v>484998.75676</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>562710.3881900001</v>
+        <v>562921.73191</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>813471.4561200001</v>
+        <v>813486.4225099999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>925293.31517</v>
+        <v>930418.79264</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>893678.68742</v>
+        <v>940205.5209300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1126293.08542</v>
+        <v>1130080.68032</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1594756.66655</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2035237.35333</v>
+        <v>2034565.44168</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2864266.98349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2862379.70097</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3566058.158</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>62851.91884000001</v>
@@ -2948,34 +3109,39 @@
         <v>102023.48851</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>118082.63325</v>
+        <v>118134.5665</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>149747.00771</v>
+        <v>149804.12662</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>173752.1745</v>
+        <v>174849.22512</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>144265.36103</v>
+        <v>175220.63446</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>240978.81911</v>
+        <v>241407.42931</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>263909.9437</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>385219.22911</v>
+        <v>385245.4628</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>387157.98334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>387614.60944</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>516469.507</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>254249.1817</v>
@@ -2987,31 +3153,34 @@
         <v>382975.26825</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>444627.75494</v>
+        <v>444787.16541</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>663724.44841</v>
+        <v>663682.29589</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>751541.1406700001</v>
+        <v>755569.5675200002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>749413.3263899999</v>
+        <v>764984.88647</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>885314.26631</v>
+        <v>888673.25101</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1330846.72285</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1650018.12422</v>
+        <v>1649319.97888</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2477109.00015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2474765.09153</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3049588.651</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>687</v>
@@ -3041,31 +3213,34 @@
         <v>738</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>912</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>909</v>
+        <v>972</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1014</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>